--- a/Estudos_de_Caso/Estudo_de_Caso_VII/Arvores_de_Decisao/Responsabilidade.xlsx
+++ b/Estudos_de_Caso/Estudo_de_Caso_VII/Arvores_de_Decisao/Responsabilidade.xlsx
@@ -102,11 +102,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -155,12 +156,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -228,11 +223,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -265,15 +264,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,61 +459,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="67.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -542,302 +533,303 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="111.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="78.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="111.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="11" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="11" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Estudos_de_Caso/Estudo_de_Caso_VII/Arvores_de_Decisao/Responsabilidade.xlsx
+++ b/Estudos_de_Caso/Estudo_de_Caso_VII/Arvores_de_Decisao/Responsabilidade.xlsx
@@ -536,7 +536,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -619,9 +619,10 @@
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
@@ -630,7 +631,7 @@
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Estudos_de_Caso/Estudo_de_Caso_VII/Arvores_de_Decisao/Responsabilidade.xlsx
+++ b/Estudos_de_Caso/Estudo_de_Caso_VII/Arvores_de_Decisao/Responsabilidade.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="22">
   <si>
     <t xml:space="preserve">Features</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">Excelente</t>
   </si>
   <si>
-    <t xml:space="preserve">MuitoEvidenciado</t>
+    <t xml:space="preserve">Muito Evidenciado</t>
   </si>
   <si>
     <t xml:space="preserve">Muito Bom</t>
@@ -71,25 +71,19 @@
     <t xml:space="preserve">Evidenciado</t>
   </si>
   <si>
-    <t xml:space="preserve">PoucoEvidenciado</t>
+    <t xml:space="preserve">Pouco Evidenciado</t>
   </si>
   <si>
     <t xml:space="preserve">Bom</t>
   </si>
   <si>
-    <t xml:space="preserve">NãoEvidenciado</t>
+    <t xml:space="preserve">Não Evidenciado</t>
   </si>
   <si>
     <t xml:space="preserve">Regular</t>
   </si>
   <si>
-    <t xml:space="preserve">Muito Evidenciado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pouco Evidenciado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não Evidenciado</t>
+    <t xml:space="preserve">Não Evidenciado </t>
   </si>
   <si>
     <t xml:space="preserve">Insuficiente</t>
@@ -535,8 +529,8 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -614,7 +608,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>11</v>
@@ -626,7 +620,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -637,7 +631,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>15</v>
@@ -648,7 +642,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>16</v>
@@ -659,10 +653,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>19</v>
@@ -725,7 +719,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>11</v>
@@ -737,7 +731,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>13</v>
@@ -748,7 +742,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>15</v>
@@ -759,7 +753,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>16</v>
@@ -770,7 +764,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>18</v>
@@ -781,7 +775,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>11</v>
@@ -792,7 +786,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>13</v>
@@ -803,7 +797,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>15</v>
@@ -814,7 +808,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>16</v>
@@ -825,13 +819,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
